--- a/data/trans_orig/IP07A02-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A02-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C73F0038-0879-44A0-8F5B-1B08F1838B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9C80D09-B327-45EB-A47D-333578E6D02F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{5ADA6756-4214-4A80-A729-A5E79757E7A7}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{A4995CAC-ADE4-43E4-86AE-BA35856A3BBC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -70,28 +70,196 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Poco</t>
+  </si>
+  <si>
     <t>Moderadamente</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
     <t>Mucho</t>
   </si>
   <si>
     <t>Muchísimo</t>
   </si>
   <si>
-    <t>Nada</t>
-  </si>
-  <si>
-    <t>Poco</t>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>100%</t>
   </si>
   <si>
     <t>10/15</t>
   </si>
   <si>
-    <t>5,1%</t>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
   </si>
   <si>
     <t>3,17%</t>
@@ -172,172 +340,40 @@
     <t>56,25%</t>
   </si>
   <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
   </si>
   <si>
     <t>4,48%</t>
@@ -421,45 +457,147 @@
     <t>55,61%</t>
   </si>
   <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
     <t>Menores según frecuencia de haber podido correr bien en 2012 (Tasa respuesta: 44,74%)</t>
   </si>
   <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
     <t>7,05%</t>
   </si>
   <si>
@@ -541,142 +679,43 @@
     <t>45,12%</t>
   </si>
   <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
   </si>
   <si>
     <t>6,26%</t>
@@ -754,48 +793,156 @@
     <t>45,32%</t>
   </si>
   <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
     <t>Menores según frecuencia de haber podido correr bien en 2015 (Tasa respuesta: 47,18%)</t>
   </si>
   <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
     <t>3,27%</t>
   </si>
   <si>
@@ -877,151 +1024,28 @@
     <t>63,76%</t>
   </si>
   <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
   </si>
   <si>
     <t>3,53%</t>
@@ -1097,30 +1121,6 @@
   </si>
   <si>
     <t>64,01%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
   </si>
 </sst>
 </file>
@@ -1512,7 +1512,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04205628-0024-4ED0-A639-976A057DC0DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6110CFA6-56A3-470E-9650-4CFA02B7639C}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1902,10 +1902,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>14228</v>
+        <v>700</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>17</v>
@@ -1917,34 +1917,34 @@
         <v>19</v>
       </c>
       <c r="H10" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>16810</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>700</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="7">
-        <v>45</v>
-      </c>
-      <c r="N10" s="7">
-        <v>31038</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1953,49 +1953,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>163</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>109825</v>
+        <v>684</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>527</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="K11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>2</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1211</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="7">
-        <v>161</v>
-      </c>
-      <c r="I11" s="7">
-        <v>108639</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="P11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" s="7">
-        <v>324</v>
-      </c>
-      <c r="N11" s="7">
-        <v>218464</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2004,49 +2004,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>226</v>
+        <v>2</v>
       </c>
       <c r="D12" s="7">
-        <v>149760</v>
+        <v>1225</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="7">
+        <v>4</v>
+      </c>
+      <c r="I12" s="7">
+        <v>2392</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" s="7">
+        <v>6</v>
+      </c>
+      <c r="N12" s="7">
+        <v>3617</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="H12" s="7">
-        <v>202</v>
-      </c>
-      <c r="I12" s="7">
-        <v>135481</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M12" s="7">
-        <v>428</v>
-      </c>
-      <c r="N12" s="7">
-        <v>285241</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2055,49 +2055,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="D13" s="7">
-        <v>3218</v>
+        <v>24688</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="7">
+        <v>43</v>
+      </c>
+      <c r="I13" s="7">
+        <v>29148</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M13" s="7">
+        <v>80</v>
+      </c>
+      <c r="N13" s="7">
+        <v>53835</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M13" s="7">
-        <v>5</v>
-      </c>
-      <c r="N13" s="7">
-        <v>3218</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2106,49 +2106,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="D14" s="7">
-        <v>1770</v>
+        <v>38768</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="7">
+        <v>35</v>
+      </c>
+      <c r="I14" s="7">
+        <v>23976</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M14" s="7">
+        <v>94</v>
+      </c>
+      <c r="N14" s="7">
+        <v>62743</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="H14" s="7">
-        <v>5</v>
-      </c>
-      <c r="I14" s="7">
-        <v>3298</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M14" s="7">
-        <v>8</v>
-      </c>
-      <c r="N14" s="7">
-        <v>5068</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2157,102 +2157,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>418</v>
+        <v>100</v>
       </c>
       <c r="D15" s="7">
-        <v>278802</v>
+        <v>66066</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H15" s="7">
-        <v>392</v>
+        <v>83</v>
       </c>
       <c r="I15" s="7">
-        <v>264228</v>
+        <v>56042</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="M15" s="7">
-        <v>810</v>
+        <v>183</v>
       </c>
       <c r="N15" s="7">
-        <v>543030</v>
+        <v>122107</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>1225</v>
+        <v>3218</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M16" s="7">
+        <v>5</v>
+      </c>
+      <c r="N16" s="7">
+        <v>3218</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H16" s="7">
-        <v>4</v>
-      </c>
-      <c r="I16" s="7">
-        <v>2392</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="M16" s="7">
-        <v>6</v>
-      </c>
-      <c r="N16" s="7">
-        <v>3617</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2261,49 +2261,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>24688</v>
+        <v>1770</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="7">
+        <v>5</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3298</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M17" s="7">
+        <v>8</v>
+      </c>
+      <c r="N17" s="7">
+        <v>5068</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H17" s="7">
-        <v>43</v>
-      </c>
-      <c r="I17" s="7">
-        <v>29148</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="M17" s="7">
-        <v>80</v>
-      </c>
-      <c r="N17" s="7">
-        <v>53835</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2312,49 +2312,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="D18" s="7">
-        <v>38768</v>
+        <v>14228</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="7">
+        <v>24</v>
+      </c>
+      <c r="I18" s="7">
+        <v>16810</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="M18" s="7">
+        <v>45</v>
+      </c>
+      <c r="N18" s="7">
+        <v>31038</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H18" s="7">
-        <v>35</v>
-      </c>
-      <c r="I18" s="7">
-        <v>23976</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="M18" s="7">
-        <v>94</v>
-      </c>
-      <c r="N18" s="7">
-        <v>62743</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2363,49 +2363,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>163</v>
       </c>
       <c r="D19" s="7">
-        <v>700</v>
+        <v>109825</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H19" s="7">
+        <v>161</v>
+      </c>
+      <c r="I19" s="7">
+        <v>108639</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M19" s="7">
+        <v>324</v>
+      </c>
+      <c r="N19" s="7">
+        <v>218464</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1</v>
-      </c>
-      <c r="N19" s="7">
-        <v>700</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2414,46 +2414,46 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>226</v>
       </c>
       <c r="D20" s="7">
-        <v>684</v>
+        <v>149760</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H20" s="7">
+        <v>202</v>
+      </c>
+      <c r="I20" s="7">
+        <v>135481</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>527</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>428</v>
+      </c>
+      <c r="N20" s="7">
+        <v>285241</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1211</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>99</v>
@@ -2465,49 +2465,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>100</v>
+        <v>418</v>
       </c>
       <c r="D21" s="7">
-        <v>66066</v>
+        <v>278802</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H21" s="7">
-        <v>83</v>
+        <v>392</v>
       </c>
       <c r="I21" s="7">
-        <v>56042</v>
+        <v>264228</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="M21" s="7">
-        <v>183</v>
+        <v>810</v>
       </c>
       <c r="N21" s="7">
-        <v>122107</v>
+        <v>543030</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2518,49 +2518,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D22" s="7">
-        <v>15454</v>
+        <v>3919</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="H22" s="7">
-        <v>28</v>
-      </c>
-      <c r="I22" s="7">
-        <v>19202</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>6</v>
+      </c>
+      <c r="N22" s="7">
+        <v>3919</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="M22" s="7">
-        <v>51</v>
-      </c>
-      <c r="N22" s="7">
-        <v>34655</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2569,49 +2569,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="D23" s="7">
-        <v>134513</v>
+        <v>2454</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H23" s="7">
+        <v>6</v>
+      </c>
+      <c r="I23" s="7">
+        <v>3825</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>10</v>
+      </c>
+      <c r="N23" s="7">
+        <v>6279</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="H23" s="7">
-        <v>204</v>
-      </c>
-      <c r="I23" s="7">
-        <v>137786</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="M23" s="7">
-        <v>404</v>
-      </c>
-      <c r="N23" s="7">
-        <v>272300</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2620,49 +2620,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>285</v>
+        <v>23</v>
       </c>
       <c r="D24" s="7">
-        <v>188528</v>
+        <v>15454</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H24" s="7">
+        <v>28</v>
+      </c>
+      <c r="I24" s="7">
+        <v>19202</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M24" s="7">
+        <v>51</v>
+      </c>
+      <c r="N24" s="7">
+        <v>34655</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="H24" s="7">
-        <v>237</v>
-      </c>
-      <c r="I24" s="7">
-        <v>159456</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="M24" s="7">
-        <v>522</v>
-      </c>
-      <c r="N24" s="7">
-        <v>347984</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2671,49 +2671,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>6</v>
+        <v>200</v>
       </c>
       <c r="D25" s="7">
-        <v>3919</v>
+        <v>134513</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H25" s="7">
+        <v>204</v>
+      </c>
+      <c r="I25" s="7">
+        <v>137786</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="M25" s="7">
+        <v>404</v>
+      </c>
+      <c r="N25" s="7">
+        <v>272300</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="M25" s="7">
-        <v>6</v>
-      </c>
-      <c r="N25" s="7">
-        <v>3919</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2722,46 +2722,46 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>4</v>
+        <v>285</v>
       </c>
       <c r="D26" s="7">
-        <v>2454</v>
+        <v>188528</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>237</v>
+      </c>
+      <c r="I26" s="7">
+        <v>159456</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="H26" s="7">
-        <v>6</v>
-      </c>
-      <c r="I26" s="7">
-        <v>3825</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>522</v>
+      </c>
+      <c r="N26" s="7">
+        <v>347984</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="M26" s="7">
-        <v>10</v>
-      </c>
-      <c r="N26" s="7">
-        <v>6279</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>138</v>
@@ -2779,13 +2779,13 @@
         <v>344868</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H27" s="7">
         <v>475</v>
@@ -2794,13 +2794,13 @@
         <v>320269</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="M27" s="7">
         <v>993</v>
@@ -2809,13 +2809,13 @@
         <v>665137</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2834,7 +2834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F28B825-25C3-450A-B1E1-2146D0B67C2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7251F7B-0537-45B1-8196-B3E076FC3371}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3224,49 +3224,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>18701</v>
+        <v>654</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>140</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="H10" s="7">
-        <v>24</v>
-      </c>
-      <c r="I10" s="7">
-        <v>17525</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>654</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="M10" s="7">
-        <v>52</v>
-      </c>
-      <c r="N10" s="7">
-        <v>36225</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3275,49 +3275,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>174</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>118495</v>
+        <v>673</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H11" s="7">
-        <v>196</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>139051</v>
+        <v>695</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="M11" s="7">
-        <v>370</v>
+        <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>257546</v>
+        <v>1368</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3326,49 +3326,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>179</v>
+        <v>3</v>
       </c>
       <c r="D12" s="7">
-        <v>121468</v>
+        <v>1994</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>159</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="H12" s="7">
-        <v>133</v>
+        <v>9</v>
       </c>
       <c r="I12" s="7">
-        <v>91517</v>
+        <v>6694</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="M12" s="7">
-        <v>312</v>
+        <v>12</v>
       </c>
       <c r="N12" s="7">
-        <v>212986</v>
+        <v>8688</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3377,49 +3377,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="D13" s="7">
-        <v>2580</v>
+        <v>32149</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="I13" s="7">
-        <v>656</v>
+        <v>32272</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>47</v>
+        <v>160</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="M13" s="7">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="N13" s="7">
-        <v>3237</v>
+        <v>64420</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3428,49 +3428,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D14" s="7">
-        <v>4138</v>
+        <v>29960</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H14" s="7">
+        <v>45</v>
+      </c>
+      <c r="I14" s="7">
+        <v>31634</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="M14" s="7">
+        <v>86</v>
+      </c>
+      <c r="N14" s="7">
+        <v>61594</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="H14" s="7">
-        <v>3</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1927</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="M14" s="7">
-        <v>9</v>
-      </c>
-      <c r="N14" s="7">
-        <v>6065</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3479,102 +3479,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>391</v>
+        <v>91</v>
       </c>
       <c r="D15" s="7">
-        <v>265383</v>
+        <v>65430</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H15" s="7">
-        <v>357</v>
+        <v>100</v>
       </c>
       <c r="I15" s="7">
-        <v>250676</v>
+        <v>71294</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="M15" s="7">
-        <v>748</v>
+        <v>191</v>
       </c>
       <c r="N15" s="7">
-        <v>516059</v>
+        <v>136723</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>1994</v>
+        <v>2580</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>98</v>
+        <v>174</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="H16" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>6694</v>
+        <v>656</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>183</v>
+        <v>18</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="M16" s="7">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="N16" s="7">
-        <v>8688</v>
+        <v>3237</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>185</v>
+        <v>65</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3583,49 +3583,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="D17" s="7">
-        <v>32149</v>
+        <v>4138</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>125</v>
+        <v>179</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>188</v>
+        <v>62</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="H17" s="7">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>32272</v>
+        <v>1927</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>191</v>
+        <v>106</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="M17" s="7">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="N17" s="7">
-        <v>64420</v>
+        <v>6065</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3634,49 +3634,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D18" s="7">
-        <v>29960</v>
+        <v>18701</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="H18" s="7">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="I18" s="7">
-        <v>31634</v>
+        <v>17525</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="M18" s="7">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="N18" s="7">
-        <v>61594</v>
+        <v>36225</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3685,49 +3685,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>174</v>
       </c>
       <c r="D19" s="7">
-        <v>654</v>
+        <v>118495</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>47</v>
+        <v>196</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>139051</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>47</v>
+        <v>198</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>48</v>
+        <v>199</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="M19" s="7">
-        <v>1</v>
+        <v>370</v>
       </c>
       <c r="N19" s="7">
-        <v>654</v>
+        <v>257546</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>57</v>
+        <v>201</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3736,46 +3736,46 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>179</v>
       </c>
       <c r="D20" s="7">
-        <v>673</v>
+        <v>121468</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H20" s="7">
+        <v>133</v>
+      </c>
+      <c r="I20" s="7">
+        <v>91517</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>312</v>
+      </c>
+      <c r="N20" s="7">
+        <v>212986</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>695</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1368</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>212</v>
@@ -3787,49 +3787,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>91</v>
+        <v>391</v>
       </c>
       <c r="D21" s="7">
-        <v>65430</v>
+        <v>265383</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H21" s="7">
-        <v>100</v>
+        <v>357</v>
       </c>
       <c r="I21" s="7">
-        <v>71294</v>
+        <v>250676</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="M21" s="7">
-        <v>191</v>
+        <v>748</v>
       </c>
       <c r="N21" s="7">
-        <v>136723</v>
+        <v>516059</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3840,10 +3840,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="D22" s="7">
-        <v>20695</v>
+        <v>3234</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>213</v>
@@ -3855,34 +3855,34 @@
         <v>215</v>
       </c>
       <c r="H22" s="7">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>24218</v>
+        <v>656</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M22" s="7">
+        <v>6</v>
+      </c>
+      <c r="N22" s="7">
+        <v>3890</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="P22" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="M22" s="7">
-        <v>64</v>
-      </c>
-      <c r="N22" s="7">
-        <v>44913</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3891,49 +3891,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>7</v>
+      </c>
+      <c r="D23" s="7">
+        <v>4812</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="D23" s="7">
-        <v>150644</v>
-      </c>
-      <c r="E23" s="7" t="s">
+      <c r="G23" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H23" s="7">
+        <v>4</v>
+      </c>
+      <c r="I23" s="7">
+        <v>2622</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>11</v>
+      </c>
+      <c r="N23" s="7">
+        <v>7433</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="H23" s="7">
-        <v>241</v>
-      </c>
-      <c r="I23" s="7">
-        <v>171322</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="M23" s="7">
-        <v>460</v>
-      </c>
-      <c r="N23" s="7">
-        <v>321966</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,49 +3942,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>220</v>
+        <v>31</v>
       </c>
       <c r="D24" s="7">
-        <v>151429</v>
+        <v>20695</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>158</v>
+        <v>226</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H24" s="7">
+        <v>33</v>
+      </c>
+      <c r="I24" s="7">
+        <v>24218</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>64</v>
+      </c>
+      <c r="N24" s="7">
+        <v>44913</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="H24" s="7">
-        <v>178</v>
-      </c>
-      <c r="I24" s="7">
-        <v>123151</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="M24" s="7">
-        <v>398</v>
-      </c>
-      <c r="N24" s="7">
-        <v>274579</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3993,49 +3993,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>5</v>
+        <v>219</v>
       </c>
       <c r="D25" s="7">
-        <v>3234</v>
+        <v>150644</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H25" s="7">
+        <v>241</v>
+      </c>
+      <c r="I25" s="7">
+        <v>171322</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="H25" s="7">
-        <v>1</v>
-      </c>
-      <c r="I25" s="7">
-        <v>656</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="M25" s="7">
-        <v>6</v>
+        <v>460</v>
       </c>
       <c r="N25" s="7">
-        <v>3890</v>
+        <v>321966</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>241</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>54</v>
+        <v>242</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,13 +4044,13 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D26" s="7">
-        <v>4812</v>
+        <v>151429</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>244</v>
@@ -4059,10 +4059,10 @@
         <v>245</v>
       </c>
       <c r="H26" s="7">
-        <v>4</v>
+        <v>178</v>
       </c>
       <c r="I26" s="7">
-        <v>2622</v>
+        <v>123151</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>246</v>
@@ -4071,16 +4071,16 @@
         <v>247</v>
       </c>
       <c r="L26" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M26" s="7">
+        <v>398</v>
+      </c>
+      <c r="N26" s="7">
+        <v>274579</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="M26" s="7">
-        <v>11</v>
-      </c>
-      <c r="N26" s="7">
-        <v>7433</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>249</v>
@@ -4101,13 +4101,13 @@
         <v>330813</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H27" s="7">
         <v>457</v>
@@ -4116,13 +4116,13 @@
         <v>321969</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="M27" s="7">
         <v>939</v>
@@ -4131,13 +4131,13 @@
         <v>652782</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -4156,7 +4156,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90028FF4-7788-4703-BB7B-B665ED298393}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F5865AE-D71F-49B8-9B2D-B30F05A9EF14}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4546,49 +4546,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>9190</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="H10" s="7">
-        <v>19</v>
-      </c>
-      <c r="I10" s="7">
-        <v>13999</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="M10" s="7">
-        <v>32</v>
-      </c>
-      <c r="N10" s="7">
-        <v>23189</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4597,49 +4597,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>116</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>84908</v>
+        <v>713</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H11" s="7">
+        <v>2</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1511</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="M11" s="7">
+        <v>3</v>
+      </c>
+      <c r="N11" s="7">
+        <v>2224</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="H11" s="7">
-        <v>140</v>
-      </c>
-      <c r="I11" s="7">
-        <v>100607</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="M11" s="7">
-        <v>256</v>
-      </c>
-      <c r="N11" s="7">
-        <v>185515</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4648,49 +4648,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>244</v>
+        <v>5</v>
       </c>
       <c r="D12" s="7">
-        <v>181490</v>
+        <v>3512</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H12" s="7">
+        <v>5</v>
+      </c>
+      <c r="I12" s="7">
+        <v>3389</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="M12" s="7">
+        <v>10</v>
+      </c>
+      <c r="N12" s="7">
+        <v>6901</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="H12" s="7">
-        <v>206</v>
-      </c>
-      <c r="I12" s="7">
-        <v>145662</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="M12" s="7">
-        <v>450</v>
-      </c>
-      <c r="N12" s="7">
-        <v>327151</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4699,49 +4699,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D13" s="7">
-        <v>2300</v>
+        <v>19127</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="H13" s="7">
+        <v>53</v>
+      </c>
+      <c r="I13" s="7">
+        <v>34552</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="M13" s="7">
+        <v>80</v>
+      </c>
+      <c r="N13" s="7">
+        <v>53679</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="H13" s="7">
-        <v>2</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1409</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="M13" s="7">
-        <v>5</v>
-      </c>
-      <c r="N13" s="7">
-        <v>3709</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4750,49 +4750,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="D14" s="7">
-        <v>3132</v>
+        <v>55708</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="H14" s="7">
+        <v>78</v>
+      </c>
+      <c r="I14" s="7">
+        <v>52061</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>159</v>
+      </c>
+      <c r="N14" s="7">
+        <v>107769</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="H14" s="7">
-        <v>4</v>
-      </c>
-      <c r="I14" s="7">
-        <v>2895</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="M14" s="7">
-        <v>8</v>
-      </c>
-      <c r="N14" s="7">
-        <v>6027</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4801,102 +4801,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>380</v>
+        <v>114</v>
       </c>
       <c r="D15" s="7">
-        <v>281019</v>
+        <v>79060</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H15" s="7">
-        <v>371</v>
+        <v>138</v>
       </c>
       <c r="I15" s="7">
-        <v>264572</v>
+        <v>91513</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="M15" s="7">
-        <v>751</v>
+        <v>252</v>
       </c>
       <c r="N15" s="7">
-        <v>545590</v>
+        <v>170573</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>3</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2300</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="H16" s="7">
+        <v>2</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1409</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="M16" s="7">
         <v>5</v>
       </c>
-      <c r="D16" s="7">
-        <v>3512</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="N16" s="7">
+        <v>3709</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="H16" s="7">
-        <v>5</v>
-      </c>
-      <c r="I16" s="7">
-        <v>3389</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="P16" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="M16" s="7">
-        <v>10</v>
-      </c>
-      <c r="N16" s="7">
-        <v>6901</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4905,49 +4905,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>19127</v>
+        <v>3132</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H17" s="7">
+        <v>4</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2895</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="M17" s="7">
+        <v>8</v>
+      </c>
+      <c r="N17" s="7">
+        <v>6027</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="H17" s="7">
-        <v>53</v>
-      </c>
-      <c r="I17" s="7">
-        <v>34552</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="M17" s="7">
-        <v>80</v>
-      </c>
-      <c r="N17" s="7">
-        <v>53679</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4956,49 +4956,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="D18" s="7">
-        <v>55708</v>
+        <v>9190</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="H18" s="7">
+        <v>19</v>
+      </c>
+      <c r="I18" s="7">
+        <v>13999</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="M18" s="7">
+        <v>32</v>
+      </c>
+      <c r="N18" s="7">
+        <v>23189</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="H18" s="7">
-        <v>78</v>
-      </c>
-      <c r="I18" s="7">
-        <v>52061</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="M18" s="7">
-        <v>159</v>
-      </c>
-      <c r="N18" s="7">
-        <v>107769</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5007,49 +5007,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>84908</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>47</v>
+        <v>310</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>48</v>
+        <v>311</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H19" s="7">
+        <v>140</v>
+      </c>
+      <c r="I19" s="7">
+        <v>100607</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="M19" s="7">
+        <v>256</v>
+      </c>
+      <c r="N19" s="7">
+        <v>185515</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5058,40 +5058,40 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>244</v>
       </c>
       <c r="D20" s="7">
-        <v>713</v>
+        <v>181490</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>206</v>
+      </c>
+      <c r="I20" s="7">
+        <v>145662</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="H20" s="7">
-        <v>2</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1511</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>324</v>
       </c>
       <c r="M20" s="7">
-        <v>3</v>
+        <v>450</v>
       </c>
       <c r="N20" s="7">
-        <v>2224</v>
+        <v>327151</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>325</v>
@@ -5109,49 +5109,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>114</v>
+        <v>380</v>
       </c>
       <c r="D21" s="7">
-        <v>79060</v>
+        <v>281019</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H21" s="7">
-        <v>138</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>91513</v>
+        <v>264572</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="M21" s="7">
-        <v>252</v>
+        <v>751</v>
       </c>
       <c r="N21" s="7">
-        <v>170573</v>
+        <v>545590</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5162,49 +5162,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>3</v>
+      </c>
+      <c r="D22" s="7">
+        <v>2300</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H22" s="7">
+        <v>2</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1409</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="7">
-        <v>12702</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="L22" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="M22" s="7">
+        <v>5</v>
+      </c>
+      <c r="N22" s="7">
+        <v>3709</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="H22" s="7">
-        <v>24</v>
-      </c>
-      <c r="I22" s="7">
-        <v>17388</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="M22" s="7">
-        <v>42</v>
-      </c>
-      <c r="N22" s="7">
-        <v>30089</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>333</v>
-      </c>
       <c r="P22" s="7" t="s">
-        <v>334</v>
+        <v>66</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>335</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5213,49 +5213,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>143</v>
+        <v>5</v>
       </c>
       <c r="D23" s="7">
-        <v>104035</v>
+        <v>3845</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="H23" s="7">
-        <v>193</v>
+        <v>6</v>
       </c>
       <c r="I23" s="7">
-        <v>135159</v>
+        <v>4406</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="M23" s="7">
-        <v>336</v>
+        <v>11</v>
       </c>
       <c r="N23" s="7">
-        <v>239194</v>
+        <v>8251</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>342</v>
+        <v>58</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>343</v>
+        <v>224</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5264,49 +5264,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>325</v>
+        <v>18</v>
       </c>
       <c r="D24" s="7">
-        <v>237197</v>
+        <v>12702</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>346</v>
+        <v>175</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="H24" s="7">
-        <v>284</v>
+        <v>24</v>
       </c>
       <c r="I24" s="7">
-        <v>197723</v>
+        <v>17388</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="M24" s="7">
-        <v>609</v>
+        <v>42</v>
       </c>
       <c r="N24" s="7">
-        <v>434920</v>
+        <v>30089</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5315,49 +5315,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>3</v>
+        <v>143</v>
       </c>
       <c r="D25" s="7">
-        <v>2300</v>
+        <v>104035</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>244</v>
+        <v>344</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>54</v>
+        <v>345</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="H25" s="7">
-        <v>2</v>
+        <v>193</v>
       </c>
       <c r="I25" s="7">
-        <v>1409</v>
+        <v>135159</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>129</v>
+        <v>347</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>47</v>
+        <v>348</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>319</v>
+        <v>349</v>
       </c>
       <c r="M25" s="7">
-        <v>5</v>
+        <v>336</v>
       </c>
       <c r="N25" s="7">
-        <v>3709</v>
+        <v>239194</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>54</v>
+        <v>351</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>131</v>
+        <v>352</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5366,46 +5366,46 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>5</v>
+        <v>325</v>
       </c>
       <c r="D26" s="7">
-        <v>3845</v>
+        <v>237197</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>284</v>
+      </c>
+      <c r="I26" s="7">
+        <v>197723</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="H26" s="7">
-        <v>6</v>
-      </c>
-      <c r="I26" s="7">
-        <v>4406</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>609</v>
+      </c>
+      <c r="N26" s="7">
+        <v>434920</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="M26" s="7">
-        <v>11</v>
-      </c>
-      <c r="N26" s="7">
-        <v>8251</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>360</v>
@@ -5423,13 +5423,13 @@
         <v>360078</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H27" s="7">
         <v>509</v>
@@ -5438,13 +5438,13 @@
         <v>356085</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="M27" s="7">
         <v>1003</v>
@@ -5453,13 +5453,13 @@
         <v>716163</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A02-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A02-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9C80D09-B327-45EB-A47D-333578E6D02F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{188B835C-EAF8-48A5-8548-B336955AE625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{A4995CAC-ADE4-43E4-86AE-BA35856A3BBC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2010E44F-7D58-4CB3-B10D-55DDFE6281A2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="357">
   <si>
     <t>Menores según frecuencia de haber podido correr bien en 2007 (Tasa respuesta: 47,2%)</t>
   </si>
@@ -67,1060 +67,1048 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Muchísimo</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>Moderadamente</t>
+  </si>
+  <si>
+    <t>Poco</t>
   </si>
   <si>
     <t>Nada</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Poco</t>
-  </si>
-  <si>
-    <t>Moderadamente</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>Muchísimo</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>1,06%</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>5,48%</t>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido correr bien en 2012 (Tasa respuesta: 44,74%)</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido correr bien en 2015 (Tasa respuesta: 47,18%)</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>59,87%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
     <t>2,28%</t>
   </si>
   <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
     <t>0,57%</t>
   </si>
   <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido correr bien en 2012 (Tasa respuesta: 44,74%)</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
+    <t>1,95%</t>
   </si>
   <si>
     <t>0,64%</t>
   </si>
   <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido correr bien en 2015 (Tasa respuesta: 47,18%)</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
     <t>1,36%</t>
   </si>
   <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
     <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
   </si>
 </sst>
 </file>
@@ -1131,7 +1119,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1227,39 +1215,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1311,7 +1299,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1422,13 +1410,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1437,6 +1418,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1501,19 +1489,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6110CFA6-56A3-470E-9650-4CFA02B7639C}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EFAC1A5-76C1-477A-B4CB-7757F004DFAB}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1902,49 +1910,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7">
-        <v>700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
-      </c>
-      <c r="N10" s="7">
-        <v>700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1953,49 +1955,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
-        <v>684</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>527</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1211</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2004,49 +2000,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>2</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>4</v>
-      </c>
-      <c r="I12" s="7">
-        <v>2392</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>6</v>
-      </c>
-      <c r="N12" s="7">
-        <v>3617</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2055,49 +2045,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>37</v>
-      </c>
-      <c r="D13" s="7">
-        <v>24688</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>43</v>
-      </c>
-      <c r="I13" s="7">
-        <v>29148</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>80</v>
-      </c>
-      <c r="N13" s="7">
-        <v>53835</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2106,49 +2090,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>59</v>
-      </c>
-      <c r="D14" s="7">
-        <v>38768</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>35</v>
-      </c>
-      <c r="I14" s="7">
-        <v>23976</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>94</v>
-      </c>
-      <c r="N14" s="7">
-        <v>62743</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2157,102 +2135,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>100</v>
-      </c>
-      <c r="D15" s="7">
-        <v>66066</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>83</v>
-      </c>
-      <c r="I15" s="7">
-        <v>56042</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>183</v>
-      </c>
-      <c r="N15" s="7">
-        <v>122107</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>5</v>
+        <v>111</v>
       </c>
       <c r="D16" s="7">
-        <v>3218</v>
+        <v>73670</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>55392</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="M16" s="7">
-        <v>5</v>
+        <v>194</v>
       </c>
       <c r="N16" s="7">
-        <v>3218</v>
+        <v>129061</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2261,49 +2233,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="D17" s="7">
-        <v>1770</v>
+        <v>60018</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="I17" s="7">
-        <v>3298</v>
+        <v>59444</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
-        <v>8</v>
+        <v>178</v>
       </c>
       <c r="N17" s="7">
-        <v>5068</v>
+        <v>119461</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2312,49 +2284,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D18" s="7">
-        <v>14228</v>
+        <v>4724</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I18" s="7">
-        <v>16810</v>
+        <v>10178</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="M18" s="7">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="N18" s="7">
-        <v>31038</v>
+        <v>14902</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2363,49 +2335,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>163</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>109825</v>
+        <v>1810</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>161</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>108639</v>
+        <v>1159</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="M19" s="7">
-        <v>324</v>
+        <v>5</v>
       </c>
       <c r="N19" s="7">
-        <v>218464</v>
+        <v>2969</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2414,49 +2386,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>226</v>
+        <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>149760</v>
+        <v>1293</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="H20" s="7">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>135481</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="M20" s="7">
-        <v>428</v>
+        <v>2</v>
       </c>
       <c r="N20" s="7">
-        <v>285241</v>
+        <v>1293</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2465,102 +2437,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>418</v>
+        <v>212</v>
       </c>
       <c r="D21" s="7">
-        <v>278802</v>
+        <v>141515</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
-        <v>392</v>
+        <v>189</v>
       </c>
       <c r="I21" s="7">
-        <v>264228</v>
+        <v>126172</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
-        <v>810</v>
+        <v>401</v>
       </c>
       <c r="N21" s="7">
-        <v>543030</v>
+        <v>267687</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>6</v>
+        <v>174</v>
       </c>
       <c r="D22" s="7">
-        <v>3919</v>
+        <v>114858</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>104064</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="M22" s="7">
-        <v>6</v>
+        <v>328</v>
       </c>
       <c r="N22" s="7">
-        <v>3919</v>
+        <v>218923</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2569,49 +2541,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="D23" s="7">
-        <v>2454</v>
+        <v>74496</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="H23" s="7">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="I23" s="7">
-        <v>3825</v>
+        <v>78342</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="M23" s="7">
-        <v>10</v>
+        <v>226</v>
       </c>
       <c r="N23" s="7">
-        <v>6279</v>
+        <v>152838</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2620,49 +2592,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D24" s="7">
-        <v>15454</v>
+        <v>10730</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="H24" s="7">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="I24" s="7">
-        <v>19202</v>
+        <v>9024</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="M24" s="7">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="N24" s="7">
-        <v>34655</v>
+        <v>19754</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2671,49 +2643,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>134513</v>
+        <v>644</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="H25" s="7">
-        <v>204</v>
+        <v>4</v>
       </c>
       <c r="I25" s="7">
-        <v>137786</v>
+        <v>2666</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="M25" s="7">
-        <v>404</v>
+        <v>5</v>
       </c>
       <c r="N25" s="7">
-        <v>272300</v>
+        <v>3310</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2722,49 +2694,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>285</v>
+        <v>4</v>
       </c>
       <c r="D26" s="7">
-        <v>188528</v>
+        <v>2625</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="H26" s="7">
-        <v>237</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>159456</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>133</v>
+        <v>49</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="M26" s="7">
-        <v>522</v>
+        <v>4</v>
       </c>
       <c r="N26" s="7">
-        <v>347984</v>
+        <v>2625</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2773,55 +2745,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>306</v>
+      </c>
+      <c r="D27" s="7">
+        <v>203353</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="7">
+        <v>286</v>
+      </c>
+      <c r="I27" s="7">
+        <v>194097</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M27" s="7">
+        <v>592</v>
+      </c>
+      <c r="N27" s="7">
+        <v>397450</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>285</v>
+      </c>
+      <c r="D28" s="7">
+        <v>188528</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H28" s="7">
+        <v>237</v>
+      </c>
+      <c r="I28" s="7">
+        <v>159456</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="M28" s="7">
+        <v>522</v>
+      </c>
+      <c r="N28" s="7">
+        <v>347984</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>200</v>
+      </c>
+      <c r="D29" s="7">
+        <v>134513</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H29" s="7">
+        <v>204</v>
+      </c>
+      <c r="I29" s="7">
+        <v>137786</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M29" s="7">
+        <v>404</v>
+      </c>
+      <c r="N29" s="7">
+        <v>272300</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>23</v>
+      </c>
+      <c r="D30" s="7">
+        <v>15454</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H30" s="7">
+        <v>28</v>
+      </c>
+      <c r="I30" s="7">
+        <v>19202</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M30" s="7">
+        <v>51</v>
+      </c>
+      <c r="N30" s="7">
+        <v>34655</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>4</v>
+      </c>
+      <c r="D31" s="7">
+        <v>2454</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H31" s="7">
+        <v>6</v>
+      </c>
+      <c r="I31" s="7">
+        <v>3825</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M31" s="7">
+        <v>10</v>
+      </c>
+      <c r="N31" s="7">
+        <v>6279</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>6</v>
+      </c>
+      <c r="D32" s="7">
+        <v>3919</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="M32" s="7">
+        <v>6</v>
+      </c>
+      <c r="N32" s="7">
+        <v>3919</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>518</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>344868</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" s="7">
         <v>475</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>320269</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M33" s="7">
         <v>993</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>665137</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>56</v>
+      <c r="O33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2834,8 +3120,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7251F7B-0537-45B1-8196-B3E076FC3371}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E7D2F5-0459-4457-A26D-27B0CB02BF5D}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2851,7 +3137,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3224,49 +3510,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7">
-        <v>654</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>140</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>142</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
-      </c>
-      <c r="N10" s="7">
-        <v>654</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3275,49 +3555,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
-        <v>673</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>695</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1368</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>140</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>148</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3326,49 +3600,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>3</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1994</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>149</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>9</v>
-      </c>
-      <c r="I12" s="7">
-        <v>6694</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>12</v>
-      </c>
-      <c r="N12" s="7">
-        <v>8688</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3377,49 +3645,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>45</v>
-      </c>
-      <c r="D13" s="7">
-        <v>32149</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>137</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>45</v>
-      </c>
-      <c r="I13" s="7">
-        <v>32272</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>90</v>
-      </c>
-      <c r="N13" s="7">
-        <v>64420</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>163</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>164</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3428,49 +3690,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>41</v>
-      </c>
-      <c r="D14" s="7">
-        <v>29960</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>166</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>167</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>45</v>
-      </c>
-      <c r="I14" s="7">
-        <v>31634</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>168</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>169</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>170</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>86</v>
-      </c>
-      <c r="N14" s="7">
-        <v>61594</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>171</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>172</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>173</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3479,102 +3735,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>91</v>
-      </c>
-      <c r="D15" s="7">
-        <v>65430</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>100</v>
-      </c>
-      <c r="I15" s="7">
-        <v>71294</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>191</v>
-      </c>
-      <c r="N15" s="7">
-        <v>136723</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="D16" s="7">
-        <v>2580</v>
+        <v>73358</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>174</v>
-      </c>
       <c r="G16" s="7" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="I16" s="7">
-        <v>656</v>
+        <v>67167</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="M16" s="7">
-        <v>5</v>
+        <v>203</v>
       </c>
       <c r="N16" s="7">
-        <v>3237</v>
+        <v>140524</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>65</v>
+        <v>151</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3583,49 +3833,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="D17" s="7">
-        <v>4138</v>
+        <v>71835</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>62</v>
+        <v>155</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="I17" s="7">
-        <v>1927</v>
+        <v>74356</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="M17" s="7">
-        <v>9</v>
+        <v>206</v>
       </c>
       <c r="N17" s="7">
-        <v>6065</v>
+        <v>146191</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3634,49 +3884,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>12</v>
+      </c>
+      <c r="D18" s="7">
+        <v>8119</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H18" s="7">
+        <v>16</v>
+      </c>
+      <c r="I18" s="7">
+        <v>11513</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="M18" s="7">
         <v>28</v>
       </c>
-      <c r="D18" s="7">
-        <v>18701</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="H18" s="7">
-        <v>24</v>
-      </c>
-      <c r="I18" s="7">
-        <v>17525</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="M18" s="7">
-        <v>52</v>
-      </c>
       <c r="N18" s="7">
-        <v>36225</v>
+        <v>19632</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3685,49 +3935,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
+        <v>2</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1331</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H19" s="7">
+        <v>3</v>
+      </c>
+      <c r="I19" s="7">
+        <v>1803</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="D19" s="7">
-        <v>118495</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H19" s="7">
-        <v>196</v>
-      </c>
-      <c r="I19" s="7">
-        <v>139051</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>200</v>
-      </c>
       <c r="M19" s="7">
-        <v>370</v>
+        <v>5</v>
       </c>
       <c r="N19" s="7">
-        <v>257546</v>
+        <v>3134</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>201</v>
+        <v>57</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>202</v>
+        <v>91</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3736,49 +3986,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
+        <v>2</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1287</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="M20" s="7">
+        <v>2</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1287</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="D20" s="7">
-        <v>121468</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H20" s="7">
-        <v>133</v>
-      </c>
-      <c r="I20" s="7">
-        <v>91517</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="M20" s="7">
-        <v>312</v>
-      </c>
-      <c r="N20" s="7">
-        <v>212986</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3787,102 +4037,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>391</v>
+        <v>224</v>
       </c>
       <c r="D21" s="7">
-        <v>265383</v>
+        <v>155930</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
-        <v>357</v>
+        <v>220</v>
       </c>
       <c r="I21" s="7">
-        <v>250676</v>
+        <v>154839</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
-        <v>748</v>
+        <v>444</v>
       </c>
       <c r="N21" s="7">
-        <v>516059</v>
+        <v>310769</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>5</v>
+        <v>114</v>
       </c>
       <c r="D22" s="7">
-        <v>3234</v>
+        <v>78071</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="I22" s="7">
-        <v>656</v>
+        <v>55984</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>66</v>
+        <v>183</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>18</v>
+        <v>184</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>36</v>
+        <v>185</v>
       </c>
       <c r="M22" s="7">
-        <v>6</v>
+        <v>195</v>
       </c>
       <c r="N22" s="7">
-        <v>3890</v>
+        <v>134055</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>66</v>
+        <v>187</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3891,49 +4141,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>7</v>
+        <v>117</v>
       </c>
       <c r="D23" s="7">
-        <v>4812</v>
+        <v>78809</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="H23" s="7">
-        <v>4</v>
+        <v>137</v>
       </c>
       <c r="I23" s="7">
-        <v>2622</v>
+        <v>96966</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="M23" s="7">
-        <v>11</v>
+        <v>254</v>
       </c>
       <c r="N23" s="7">
-        <v>7433</v>
+        <v>175775</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>33</v>
+        <v>195</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,49 +4192,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D24" s="7">
-        <v>20695</v>
+        <v>12576</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="H24" s="7">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="I24" s="7">
-        <v>24218</v>
+        <v>12705</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="M24" s="7">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="N24" s="7">
-        <v>44913</v>
+        <v>25281</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3993,49 +4243,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>219</v>
+        <v>5</v>
       </c>
       <c r="D25" s="7">
-        <v>150644</v>
+        <v>3481</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="H25" s="7">
-        <v>241</v>
+        <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>171322</v>
+        <v>818</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>239</v>
+        <v>49</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="M25" s="7">
-        <v>460</v>
+        <v>6</v>
       </c>
       <c r="N25" s="7">
-        <v>321966</v>
+        <v>4299</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,49 +4294,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>220</v>
+        <v>3</v>
       </c>
       <c r="D26" s="7">
-        <v>151429</v>
+        <v>1947</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>204</v>
+        <v>51</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>244</v>
+        <v>91</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="H26" s="7">
-        <v>178</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>123151</v>
+        <v>656</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>246</v>
+        <v>52</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>247</v>
+        <v>49</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>50</v>
+        <v>216</v>
       </c>
       <c r="M26" s="7">
-        <v>398</v>
+        <v>4</v>
       </c>
       <c r="N26" s="7">
-        <v>274579</v>
+        <v>2603</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>249</v>
+        <v>129</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4095,55 +4345,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>258</v>
+      </c>
+      <c r="D27" s="7">
+        <v>174883</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="7">
+        <v>237</v>
+      </c>
+      <c r="I27" s="7">
+        <v>167130</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M27" s="7">
+        <v>495</v>
+      </c>
+      <c r="N27" s="7">
+        <v>342013</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>220</v>
+      </c>
+      <c r="D28" s="7">
+        <v>151429</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H28" s="7">
+        <v>178</v>
+      </c>
+      <c r="I28" s="7">
+        <v>123151</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="M28" s="7">
+        <v>398</v>
+      </c>
+      <c r="N28" s="7">
+        <v>274579</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>219</v>
+      </c>
+      <c r="D29" s="7">
+        <v>150644</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H29" s="7">
+        <v>241</v>
+      </c>
+      <c r="I29" s="7">
+        <v>171322</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="M29" s="7">
+        <v>460</v>
+      </c>
+      <c r="N29" s="7">
+        <v>321966</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>31</v>
+      </c>
+      <c r="D30" s="7">
+        <v>20695</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H30" s="7">
+        <v>33</v>
+      </c>
+      <c r="I30" s="7">
+        <v>24218</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="M30" s="7">
+        <v>64</v>
+      </c>
+      <c r="N30" s="7">
+        <v>44913</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>7</v>
+      </c>
+      <c r="D31" s="7">
+        <v>4812</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H31" s="7">
+        <v>4</v>
+      </c>
+      <c r="I31" s="7">
+        <v>2622</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="M31" s="7">
+        <v>11</v>
+      </c>
+      <c r="N31" s="7">
+        <v>7433</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>5</v>
+      </c>
+      <c r="D32" s="7">
+        <v>3234</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H32" s="7">
+        <v>1</v>
+      </c>
+      <c r="I32" s="7">
+        <v>656</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="M32" s="7">
+        <v>6</v>
+      </c>
+      <c r="N32" s="7">
+        <v>3890</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>482</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>330813</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" s="7">
         <v>457</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>321969</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M33" s="7">
         <v>939</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>652782</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>56</v>
+      <c r="O33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4156,8 +4720,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F5865AE-D71F-49B8-9B2D-B30F05A9EF14}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB252C2A-2E33-4A94-967A-5994C0CE7C4C}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4173,7 +4737,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4548,47 +5112,41 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>252</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>253</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>254</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4597,49 +5155,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
-        <v>713</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>255</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>256</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1511</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>257</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>258</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
-      </c>
-      <c r="N11" s="7">
-        <v>2224</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>259</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>260</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>261</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4648,49 +5200,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>5</v>
-      </c>
-      <c r="D12" s="7">
-        <v>3512</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>262</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>263</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>264</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>5</v>
-      </c>
-      <c r="I12" s="7">
-        <v>3389</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>265</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>266</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>267</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>10</v>
-      </c>
-      <c r="N12" s="7">
-        <v>6901</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>268</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>269</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>270</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4699,49 +5245,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>27</v>
-      </c>
-      <c r="D13" s="7">
-        <v>19127</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>271</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>272</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>273</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>53</v>
-      </c>
-      <c r="I13" s="7">
-        <v>34552</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>274</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>275</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>276</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>80</v>
-      </c>
-      <c r="N13" s="7">
-        <v>53679</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>277</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>278</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>279</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4750,49 +5290,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>81</v>
-      </c>
-      <c r="D14" s="7">
-        <v>55708</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>280</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>281</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>282</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>78</v>
-      </c>
-      <c r="I14" s="7">
-        <v>52061</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>283</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>284</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>285</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>159</v>
-      </c>
-      <c r="N14" s="7">
-        <v>107769</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>286</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>287</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>288</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4801,102 +5335,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>114</v>
-      </c>
-      <c r="D15" s="7">
-        <v>79060</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>138</v>
-      </c>
-      <c r="I15" s="7">
-        <v>91513</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>252</v>
-      </c>
-      <c r="N15" s="7">
-        <v>170573</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>3</v>
+        <v>176</v>
       </c>
       <c r="D16" s="7">
-        <v>2300</v>
+        <v>126117</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>174</v>
+        <v>260</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="H16" s="7">
-        <v>2</v>
+        <v>156</v>
       </c>
       <c r="I16" s="7">
-        <v>1409</v>
+        <v>107822</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>18</v>
+        <v>156</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="M16" s="7">
-        <v>5</v>
+        <v>332</v>
       </c>
       <c r="N16" s="7">
-        <v>3709</v>
+        <v>233940</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>176</v>
+        <v>265</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4905,49 +5433,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="D17" s="7">
-        <v>3132</v>
+        <v>51704</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="H17" s="7">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="I17" s="7">
-        <v>2895</v>
+        <v>67648</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>174</v>
+        <v>271</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="M17" s="7">
-        <v>8</v>
+        <v>168</v>
       </c>
       <c r="N17" s="7">
-        <v>6027</v>
+        <v>119352</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>36</v>
+        <v>273</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4956,49 +5484,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D18" s="7">
-        <v>9190</v>
+        <v>7347</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="H18" s="7">
+        <v>9</v>
+      </c>
+      <c r="I18" s="7">
+        <v>6338</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="M18" s="7">
         <v>19</v>
       </c>
-      <c r="I18" s="7">
-        <v>13999</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="M18" s="7">
-        <v>32</v>
-      </c>
       <c r="N18" s="7">
-        <v>23189</v>
+        <v>13686</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5007,49 +5535,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>116</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>84908</v>
+        <v>1472</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>311</v>
+        <v>49</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
       <c r="H19" s="7">
-        <v>140</v>
+        <v>4</v>
       </c>
       <c r="I19" s="7">
-        <v>100607</v>
+        <v>2766</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>313</v>
+        <v>59</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>314</v>
+        <v>132</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="M19" s="7">
-        <v>256</v>
+        <v>6</v>
       </c>
       <c r="N19" s="7">
-        <v>185515</v>
+        <v>4238</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>316</v>
+        <v>137</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>317</v>
+        <v>46</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>318</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5058,49 +5586,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>244</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>181490</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>319</v>
+        <v>49</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>320</v>
+        <v>56</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>321</v>
+        <v>287</v>
       </c>
       <c r="H20" s="7">
-        <v>206</v>
+        <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>145662</v>
+        <v>1409</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>322</v>
+        <v>217</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>323</v>
+        <v>49</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>324</v>
+        <v>288</v>
       </c>
       <c r="M20" s="7">
-        <v>450</v>
+        <v>2</v>
       </c>
       <c r="N20" s="7">
-        <v>327151</v>
+        <v>1409</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>325</v>
+        <v>46</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>326</v>
+        <v>49</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>327</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5109,102 +5637,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>380</v>
+        <v>260</v>
       </c>
       <c r="D21" s="7">
-        <v>281019</v>
+        <v>186641</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
-        <v>371</v>
+        <v>267</v>
       </c>
       <c r="I21" s="7">
-        <v>264572</v>
+        <v>185983</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
-        <v>751</v>
+        <v>527</v>
       </c>
       <c r="N21" s="7">
-        <v>545590</v>
+        <v>372624</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>3</v>
+        <v>149</v>
       </c>
       <c r="D22" s="7">
-        <v>2300</v>
+        <v>111080</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>219</v>
+        <v>290</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>66</v>
+        <v>291</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>328</v>
+        <v>292</v>
       </c>
       <c r="H22" s="7">
-        <v>2</v>
+        <v>128</v>
       </c>
       <c r="I22" s="7">
-        <v>1409</v>
+        <v>89901</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>102</v>
+        <v>293</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>18</v>
+        <v>294</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>253</v>
+        <v>295</v>
       </c>
       <c r="M22" s="7">
-        <v>5</v>
+        <v>277</v>
       </c>
       <c r="N22" s="7">
-        <v>3709</v>
+        <v>200981</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>66</v>
+        <v>297</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>104</v>
+        <v>298</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5213,49 +5741,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="D23" s="7">
-        <v>3845</v>
+        <v>52331</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>330</v>
+        <v>299</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>332</v>
+        <v>301</v>
       </c>
       <c r="H23" s="7">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="I23" s="7">
-        <v>4406</v>
+        <v>67512</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>333</v>
+        <v>302</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c r="M23" s="7">
-        <v>11</v>
+        <v>168</v>
       </c>
       <c r="N23" s="7">
-        <v>8251</v>
+        <v>119843</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>58</v>
+        <v>305</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>224</v>
+        <v>306</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>335</v>
+        <v>307</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5264,49 +5792,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D24" s="7">
-        <v>12702</v>
+        <v>5354</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>175</v>
+        <v>309</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>337</v>
+        <v>310</v>
       </c>
       <c r="H24" s="7">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I24" s="7">
-        <v>17388</v>
+        <v>11049</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>338</v>
+        <v>121</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="M24" s="7">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="N24" s="7">
-        <v>30089</v>
+        <v>16403</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>341</v>
+        <v>313</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>343</v>
+        <v>315</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5315,49 +5843,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>143</v>
+        <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>104035</v>
+        <v>2373</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>344</v>
+        <v>90</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>345</v>
+        <v>178</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>346</v>
+        <v>316</v>
       </c>
       <c r="H25" s="7">
-        <v>193</v>
+        <v>2</v>
       </c>
       <c r="I25" s="7">
-        <v>135159</v>
+        <v>1640</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>347</v>
+        <v>317</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>348</v>
+        <v>49</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>349</v>
+        <v>318</v>
       </c>
       <c r="M25" s="7">
-        <v>336</v>
+        <v>5</v>
       </c>
       <c r="N25" s="7">
-        <v>239194</v>
+        <v>4013</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>350</v>
+        <v>319</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>351</v>
+        <v>139</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>352</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5366,49 +5894,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>325</v>
+        <v>3</v>
       </c>
       <c r="D26" s="7">
-        <v>237197</v>
+        <v>2300</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>353</v>
+        <v>320</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>354</v>
+        <v>178</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>355</v>
+        <v>321</v>
       </c>
       <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="I26" s="7">
-        <v>197723</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>358</v>
-      </c>
       <c r="M26" s="7">
-        <v>609</v>
+        <v>3</v>
       </c>
       <c r="N26" s="7">
-        <v>434920</v>
+        <v>2300</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>281</v>
+        <v>97</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>359</v>
+        <v>249</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>360</v>
+        <v>322</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5417,55 +5945,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>234</v>
+      </c>
+      <c r="D27" s="7">
+        <v>173437</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="7">
+        <v>242</v>
+      </c>
+      <c r="I27" s="7">
+        <v>170102</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M27" s="7">
+        <v>476</v>
+      </c>
+      <c r="N27" s="7">
+        <v>343540</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>325</v>
+      </c>
+      <c r="D28" s="7">
+        <v>237197</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="H28" s="7">
+        <v>284</v>
+      </c>
+      <c r="I28" s="7">
+        <v>197723</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="M28" s="7">
+        <v>609</v>
+      </c>
+      <c r="N28" s="7">
+        <v>434920</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>143</v>
+      </c>
+      <c r="D29" s="7">
+        <v>104035</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="H29" s="7">
+        <v>193</v>
+      </c>
+      <c r="I29" s="7">
+        <v>135159</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M29" s="7">
+        <v>336</v>
+      </c>
+      <c r="N29" s="7">
+        <v>239194</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>18</v>
+      </c>
+      <c r="D30" s="7">
+        <v>12702</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="H30" s="7">
+        <v>24</v>
+      </c>
+      <c r="I30" s="7">
+        <v>17388</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M30" s="7">
+        <v>42</v>
+      </c>
+      <c r="N30" s="7">
+        <v>30089</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>5</v>
+      </c>
+      <c r="D31" s="7">
+        <v>3845</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="H31" s="7">
+        <v>6</v>
+      </c>
+      <c r="I31" s="7">
+        <v>4406</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="M31" s="7">
+        <v>11</v>
+      </c>
+      <c r="N31" s="7">
+        <v>8251</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>3</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2300</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H32" s="7">
+        <v>2</v>
+      </c>
+      <c r="I32" s="7">
+        <v>1409</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="M32" s="7">
+        <v>5</v>
+      </c>
+      <c r="N32" s="7">
+        <v>3709</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>494</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>360078</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" s="7">
         <v>509</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>356085</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M33" s="7">
         <v>1003</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>716163</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>56</v>
+      <c r="O33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP07A02-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A02-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{188B835C-EAF8-48A5-8548-B336955AE625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F69FC48-BF48-4A8F-8072-4527E27CB761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2010E44F-7D58-4CB3-B10D-55DDFE6281A2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B3F7108E-756B-4154-BE1A-92A54FCC0897}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="355">
   <si>
     <t>Menores según frecuencia de haber podido correr bien en 2007 (Tasa respuesta: 47,2%)</t>
   </si>
@@ -97,34 +97,34 @@
     <t>52,06%</t>
   </si>
   <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
   </si>
   <si>
     <t>43,9%</t>
   </si>
   <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
   </si>
   <si>
     <t>48,21%</t>
   </si>
   <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
   </si>
   <si>
     <t>42,41%</t>
   </si>
   <si>
-    <t>36,14%</t>
+    <t>35,89%</t>
   </si>
   <si>
     <t>49,59%</t>
@@ -133,979 +133,973 @@
     <t>47,11%</t>
   </si>
   <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
   </si>
   <si>
     <t>44,63%</t>
   </si>
   <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
   </si>
   <si>
     <t>3,34%</t>
   </si>
   <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
   </si>
   <si>
     <t>8,07%</t>
   </si>
   <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>59,62%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido correr bien en 2012 (Tasa respuesta: 44,74%)</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
     <t>4,45%</t>
   </si>
   <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
   </si>
   <si>
     <t>0,38%</t>
   </si>
   <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido correr bien en 2016 (Tasa respuesta: 47,18%)</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>58,6%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
   </si>
   <si>
     <t>1,49%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>57,18%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>62,82%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
   </si>
   <si>
     <t>6,93%</t>
   </si>
   <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
     <t>4,19%</t>
   </si>
   <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido correr bien en 2012 (Tasa respuesta: 44,74%)</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
   </si>
   <si>
     <t>1,47%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido correr bien en 2015 (Tasa respuesta: 47,18%)</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>59,87%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
   </si>
   <si>
     <t>0,52%</t>
@@ -1520,7 +1514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EFAC1A5-76C1-477A-B4CB-7757F004DFAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0192E2F7-AFF0-4F30-A095-9592525BA3EE}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2601,10 +2595,10 @@
         <v>80</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H24" s="7">
         <v>13</v>
@@ -2613,13 +2607,13 @@
         <v>9024</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M24" s="7">
         <v>29</v>
@@ -2628,13 +2622,13 @@
         <v>19754</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2649,13 +2643,13 @@
         <v>644</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>49</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -2664,13 +2658,13 @@
         <v>2666</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -2679,13 +2673,13 @@
         <v>3310</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2700,13 +2694,13 @@
         <v>2625</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2721,7 +2715,7 @@
         <v>56</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -2730,13 +2724,13 @@
         <v>2625</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2804,13 +2798,13 @@
         <v>188528</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H28" s="7">
         <v>237</v>
@@ -2819,13 +2813,13 @@
         <v>159456</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M28" s="7">
         <v>522</v>
@@ -2834,13 +2828,13 @@
         <v>347984</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2855,13 +2849,13 @@
         <v>134513</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H29" s="7">
         <v>204</v>
@@ -2870,13 +2864,13 @@
         <v>137786</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M29" s="7">
         <v>404</v>
@@ -2885,13 +2879,13 @@
         <v>272300</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2906,13 +2900,13 @@
         <v>15454</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H30" s="7">
         <v>28</v>
@@ -2921,13 +2915,13 @@
         <v>19202</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M30" s="7">
         <v>51</v>
@@ -2936,13 +2930,13 @@
         <v>34655</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2957,13 +2951,13 @@
         <v>2454</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H31" s="7">
         <v>6</v>
@@ -2972,13 +2966,13 @@
         <v>3825</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M31" s="7">
         <v>10</v>
@@ -2987,13 +2981,13 @@
         <v>6279</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3008,13 +3002,13 @@
         <v>3919</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3029,7 +3023,7 @@
         <v>56</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M32" s="7">
         <v>6</v>
@@ -3038,13 +3032,13 @@
         <v>3919</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3100,7 +3094,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3120,7 +3114,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E7D2F5-0459-4457-A26D-27B0CB02BF5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EB9E470-CCFB-4C71-905E-E302B2C1131F}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3137,7 +3131,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3788,13 +3782,13 @@
         <v>73358</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H16" s="7">
         <v>97</v>
@@ -3803,13 +3797,13 @@
         <v>67167</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M16" s="7">
         <v>203</v>
@@ -3818,13 +3812,13 @@
         <v>140524</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3839,13 +3833,13 @@
         <v>71835</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H17" s="7">
         <v>104</v>
@@ -3854,13 +3848,13 @@
         <v>74356</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M17" s="7">
         <v>206</v>
@@ -3869,13 +3863,13 @@
         <v>146191</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3890,13 +3884,13 @@
         <v>8119</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>120</v>
+        <v>164</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H18" s="7">
         <v>16</v>
@@ -3905,13 +3899,13 @@
         <v>11513</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M18" s="7">
         <v>28</v>
@@ -3920,13 +3914,13 @@
         <v>19632</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3941,13 +3935,13 @@
         <v>1331</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>49</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -3956,13 +3950,13 @@
         <v>1803</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -3974,10 +3968,10 @@
         <v>57</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>91</v>
+        <v>177</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3992,13 +3986,13 @@
         <v>1287</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>49</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4013,7 +4007,7 @@
         <v>56</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -4022,13 +4016,13 @@
         <v>1287</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>178</v>
+        <v>52</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>49</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4096,13 +4090,13 @@
         <v>78071</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H22" s="7">
         <v>81</v>
@@ -4111,13 +4105,13 @@
         <v>55984</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M22" s="7">
         <v>195</v>
@@ -4126,13 +4120,13 @@
         <v>134055</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4147,13 +4141,13 @@
         <v>78809</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H23" s="7">
         <v>137</v>
@@ -4162,13 +4156,13 @@
         <v>96966</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M23" s="7">
         <v>254</v>
@@ -4177,13 +4171,13 @@
         <v>175775</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4198,13 +4192,13 @@
         <v>12576</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H24" s="7">
         <v>17</v>
@@ -4213,13 +4207,13 @@
         <v>12705</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M24" s="7">
         <v>36</v>
@@ -4228,13 +4222,13 @@
         <v>25281</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4249,13 +4243,13 @@
         <v>3481</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -4264,13 +4258,13 @@
         <v>818</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>49</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -4279,13 +4273,13 @@
         <v>4299</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4303,10 +4297,10 @@
         <v>51</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>215</v>
+        <v>122</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -4315,13 +4309,13 @@
         <v>656</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>49</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -4330,13 +4324,13 @@
         <v>2603</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>218</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4404,13 +4398,13 @@
         <v>151429</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H28" s="7">
         <v>178</v>
@@ -4419,13 +4413,13 @@
         <v>123151</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M28" s="7">
         <v>398</v>
@@ -4434,13 +4428,13 @@
         <v>274579</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4455,13 +4449,13 @@
         <v>150644</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H29" s="7">
         <v>241</v>
@@ -4470,13 +4464,13 @@
         <v>171322</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M29" s="7">
         <v>460</v>
@@ -4485,13 +4479,13 @@
         <v>321966</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4506,13 +4500,13 @@
         <v>20695</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H30" s="7">
         <v>33</v>
@@ -4521,13 +4515,13 @@
         <v>24218</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M30" s="7">
         <v>64</v>
@@ -4536,13 +4530,13 @@
         <v>44913</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>244</v>
+        <v>207</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4557,13 +4551,13 @@
         <v>4812</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>96</v>
+        <v>245</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
@@ -4572,13 +4566,13 @@
         <v>2622</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M31" s="7">
         <v>11</v>
@@ -4587,13 +4581,13 @@
         <v>7433</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>251</v>
+        <v>141</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4608,13 +4602,13 @@
         <v>3234</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>46</v>
+        <v>251</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -4623,13 +4617,13 @@
         <v>656</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>49</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M32" s="7">
         <v>6</v>
@@ -4638,13 +4632,13 @@
         <v>3890</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>249</v>
+        <v>142</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4700,7 +4694,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4720,7 +4714,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB252C2A-2E33-4A94-967A-5994C0CE7C4C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAC3B72-EBA9-44CA-A9A4-07250AE000D2}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4737,7 +4731,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5388,13 +5382,13 @@
         <v>126117</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H16" s="7">
         <v>156</v>
@@ -5403,13 +5397,13 @@
         <v>107822</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>156</v>
+        <v>260</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M16" s="7">
         <v>332</v>
@@ -5418,13 +5412,13 @@
         <v>233940</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5439,13 +5433,13 @@
         <v>51704</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="H17" s="7">
         <v>96</v>
@@ -5454,13 +5448,13 @@
         <v>67648</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="M17" s="7">
         <v>168</v>
@@ -5469,13 +5463,13 @@
         <v>119352</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5490,13 +5484,13 @@
         <v>7347</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H18" s="7">
         <v>9</v>
@@ -5505,13 +5499,13 @@
         <v>6338</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>237</v>
+        <v>278</v>
       </c>
       <c r="M18" s="7">
         <v>19</v>
@@ -5520,13 +5514,13 @@
         <v>13686</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5541,13 +5535,13 @@
         <v>1472</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>49</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>214</v>
+        <v>283</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -5556,10 +5550,10 @@
         <v>2766</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>59</v>
+        <v>284</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>132</v>
+        <v>215</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>285</v>
@@ -5571,10 +5565,10 @@
         <v>4238</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>286</v>
@@ -5607,7 +5601,7 @@
         <v>1409</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>49</v>
@@ -5622,7 +5616,7 @@
         <v>1409</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>46</v>
+        <v>251</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>49</v>
@@ -5813,10 +5807,10 @@
         <v>11049</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>121</v>
+        <v>311</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>311</v>
+        <v>285</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>312</v>
@@ -5849,10 +5843,10 @@
         <v>2373</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>178</v>
+        <v>52</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>316</v>
@@ -5882,10 +5876,10 @@
         <v>319</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>139</v>
+        <v>215</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>83</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5900,13 +5894,13 @@
         <v>2300</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>178</v>
+        <v>52</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5921,7 +5915,7 @@
         <v>56</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -5930,13 +5924,13 @@
         <v>2300</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>249</v>
+        <v>323</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6004,13 +5998,13 @@
         <v>237197</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H28" s="7">
         <v>284</v>
@@ -6019,13 +6013,13 @@
         <v>197723</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M28" s="7">
         <v>609</v>
@@ -6034,13 +6028,13 @@
         <v>434920</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6055,13 +6049,13 @@
         <v>104035</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H29" s="7">
         <v>193</v>
@@ -6070,13 +6064,13 @@
         <v>135159</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>336</v>
+        <v>185</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>73</v>
+        <v>338</v>
       </c>
       <c r="M29" s="7">
         <v>336</v>
@@ -6085,13 +6079,13 @@
         <v>239194</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6106,13 +6100,13 @@
         <v>12702</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="H30" s="7">
         <v>24</v>
@@ -6121,13 +6115,13 @@
         <v>17388</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>87</v>
+        <v>345</v>
       </c>
       <c r="M30" s="7">
         <v>42</v>
@@ -6136,13 +6130,13 @@
         <v>30089</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>344</v>
+        <v>288</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6157,13 +6151,13 @@
         <v>3845</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>178</v>
+        <v>140</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>347</v>
+        <v>280</v>
       </c>
       <c r="H31" s="7">
         <v>6</v>
@@ -6172,13 +6166,13 @@
         <v>4406</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>348</v>
+        <v>143</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>349</v>
+        <v>215</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>350</v>
+        <v>135</v>
       </c>
       <c r="M31" s="7">
         <v>11</v>
@@ -6187,13 +6181,13 @@
         <v>8251</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>352</v>
+        <v>141</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6208,13 +6202,13 @@
         <v>2300</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>218</v>
+        <v>352</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -6223,13 +6217,13 @@
         <v>1409</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>49</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="M32" s="7">
         <v>5</v>
@@ -6238,13 +6232,13 @@
         <v>3709</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>172</v>
+        <v>349</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6300,7 +6294,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A02-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A02-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F69FC48-BF48-4A8F-8072-4527E27CB761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB645D27-D8C5-4330-BE50-B2E28AA5DA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B3F7108E-756B-4154-BE1A-92A54FCC0897}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E38F94D1-6371-44C9-A31E-43CD9850B29D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="357">
   <si>
     <t>Menores según frecuencia de haber podido correr bien en 2007 (Tasa respuesta: 47,2%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -94,85 +94,91 @@
     <t>8-11</t>
   </si>
   <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
     <t>52,06%</t>
   </si>
   <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
   </si>
   <si>
     <t>48,21%</t>
   </si>
   <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
   </si>
   <si>
     <t>42,41%</t>
   </si>
   <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>47,11%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
   </si>
   <si>
     <t>44,63%</t>
   </si>
   <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
   </si>
   <si>
     <t>3,34%</t>
   </si>
   <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
   </si>
   <si>
     <t>5,57%</t>
   </si>
   <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
   </si>
   <si>
     <t>1,28%</t>
@@ -181,907 +187,916 @@
     <t>0,39%</t>
   </si>
   <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido correr bien en 2012 (Tasa respuesta: 44,74%)</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido correr bien en 2016 (Tasa respuesta: 47,18%)</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
     <t>3,53%</t>
   </si>
   <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>59,62%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
   </si>
   <si>
     <t>1,24%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido correr bien en 2012 (Tasa respuesta: 44,74%)</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido correr bien en 2016 (Tasa respuesta: 47,18%)</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>58,6%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>57,18%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
   </si>
   <si>
     <t>1,07%</t>
@@ -1093,16 +1108,7 @@
     <t>2,02%</t>
   </si>
   <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
+    <t>1,79%</t>
   </si>
 </sst>
 </file>
@@ -1514,7 +1520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0192E2F7-AFF0-4F30-A095-9592525BA3EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DEC55F4-B4DE-430A-A01B-E24664F763A2}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2176,10 +2182,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="D16" s="7">
-        <v>73670</v>
+        <v>55392</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>18</v>
@@ -2191,10 +2197,10 @@
         <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="I16" s="7">
-        <v>55392</v>
+        <v>73670</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>21</v>
@@ -2230,7 +2236,7 @@
         <v>89</v>
       </c>
       <c r="D17" s="7">
-        <v>60018</v>
+        <v>59444</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>27</v>
@@ -2245,7 +2251,7 @@
         <v>89</v>
       </c>
       <c r="I17" s="7">
-        <v>59444</v>
+        <v>60018</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>30</v>
@@ -2278,10 +2284,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D18" s="7">
-        <v>4724</v>
+        <v>10178</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>36</v>
@@ -2293,10 +2299,10 @@
         <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I18" s="7">
-        <v>10178</v>
+        <v>4724</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>39</v>
@@ -2320,7 +2326,7 @@
         <v>43</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2329,34 +2335,34 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
+        <v>2</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1159</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="7">
         <v>3</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>1810</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H19" s="7">
-        <v>2</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1159</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -2365,13 +2371,13 @@
         <v>2969</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2380,34 +2386,34 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" s="7">
         <v>2</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>1293</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>49</v>
-      </c>
       <c r="K20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -2416,13 +2422,13 @@
         <v>1293</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2431,34 +2437,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>189</v>
+      </c>
+      <c r="D21" s="7">
+        <v>126172</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="7">
         <v>212</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>141515</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="7">
-        <v>189</v>
-      </c>
-      <c r="I21" s="7">
-        <v>126172</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>401</v>
@@ -2467,51 +2473,51 @@
         <v>267687</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>154</v>
+      </c>
+      <c r="D22" s="7">
+        <v>104064</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22" s="7">
         <v>174</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>114858</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H22" s="7">
-        <v>154</v>
-      </c>
-      <c r="I22" s="7">
-        <v>104064</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M22" s="7">
         <v>328</v>
@@ -2520,13 +2526,13 @@
         <v>218923</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2535,34 +2541,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>115</v>
+      </c>
+      <c r="D23" s="7">
+        <v>78342</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23" s="7">
         <v>111</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>74496</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="H23" s="7">
-        <v>115</v>
-      </c>
-      <c r="I23" s="7">
-        <v>78342</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M23" s="7">
         <v>226</v>
@@ -2571,13 +2577,13 @@
         <v>152838</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2586,34 +2592,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>13</v>
+      </c>
+      <c r="D24" s="7">
+        <v>9024</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" s="7">
         <v>16</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>10730</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="H24" s="7">
-        <v>13</v>
-      </c>
-      <c r="I24" s="7">
-        <v>9024</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M24" s="7">
         <v>29</v>
@@ -2622,13 +2628,13 @@
         <v>19754</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2637,34 +2643,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D25" s="7">
-        <v>644</v>
+        <v>2666</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>90</v>
       </c>
       <c r="H25" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>2666</v>
+        <v>644</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>91</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -2673,13 +2679,13 @@
         <v>3310</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2688,34 +2694,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H26" s="7">
         <v>4</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>2625</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -2724,13 +2730,13 @@
         <v>2625</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2739,34 +2745,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>286</v>
+      </c>
+      <c r="D27" s="7">
+        <v>194097</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="7">
         <v>306</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>203353</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" s="7">
-        <v>286</v>
-      </c>
-      <c r="I27" s="7">
-        <v>194097</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>592</v>
@@ -2775,13 +2781,13 @@
         <v>397450</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2792,34 +2798,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>237</v>
+      </c>
+      <c r="D28" s="7">
+        <v>159456</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H28" s="7">
         <v>285</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>188528</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="J28" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="K28" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="H28" s="7">
-        <v>237</v>
-      </c>
-      <c r="I28" s="7">
-        <v>159456</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M28" s="7">
         <v>522</v>
@@ -2828,13 +2834,13 @@
         <v>347984</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2843,34 +2849,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>204</v>
+      </c>
+      <c r="D29" s="7">
+        <v>137786</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H29" s="7">
         <v>200</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>134513</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="J29" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="H29" s="7">
-        <v>204</v>
-      </c>
-      <c r="I29" s="7">
-        <v>137786</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M29" s="7">
         <v>404</v>
@@ -2879,13 +2885,13 @@
         <v>272300</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2894,34 +2900,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>28</v>
+      </c>
+      <c r="D30" s="7">
+        <v>19202</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H30" s="7">
         <v>23</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>15454</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="J30" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="H30" s="7">
-        <v>28</v>
-      </c>
-      <c r="I30" s="7">
-        <v>19202</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M30" s="7">
         <v>51</v>
@@ -2930,13 +2936,13 @@
         <v>34655</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2945,34 +2951,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>6</v>
+      </c>
+      <c r="D31" s="7">
+        <v>3825</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H31" s="7">
         <v>4</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>2454</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="J31" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="K31" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="H31" s="7">
-        <v>6</v>
-      </c>
-      <c r="I31" s="7">
-        <v>3825</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M31" s="7">
         <v>10</v>
@@ -2981,13 +2987,13 @@
         <v>6279</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2996,34 +3002,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H32" s="7">
         <v>6</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>3919</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>0</v>
-      </c>
       <c r="J32" s="7" t="s">
-        <v>49</v>
+        <v>137</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>140</v>
+        <v>52</v>
       </c>
       <c r="M32" s="7">
         <v>6</v>
@@ -3032,13 +3038,13 @@
         <v>3919</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3047,34 +3053,34 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>475</v>
+      </c>
+      <c r="D33" s="7">
+        <v>320269</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
         <v>518</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>344868</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H33" s="7">
-        <v>475</v>
-      </c>
-      <c r="I33" s="7">
-        <v>320269</v>
-      </c>
       <c r="J33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M33" s="7">
         <v>993</v>
@@ -3083,18 +3089,18 @@
         <v>665137</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -3114,7 +3120,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EB9E470-CCFB-4C71-905E-E302B2C1131F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7836F562-4704-42D2-B14C-DAE196907EBD}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3131,7 +3137,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3776,34 +3782,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>97</v>
+      </c>
+      <c r="D16" s="7">
+        <v>67167</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H16" s="7">
         <v>106</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>73358</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="H16" s="7">
-        <v>97</v>
-      </c>
-      <c r="I16" s="7">
-        <v>67167</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M16" s="7">
         <v>203</v>
@@ -3812,13 +3818,13 @@
         <v>140524</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3827,34 +3833,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>104</v>
+      </c>
+      <c r="D17" s="7">
+        <v>74356</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H17" s="7">
         <v>102</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>71835</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="H17" s="7">
-        <v>104</v>
-      </c>
-      <c r="I17" s="7">
-        <v>74356</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M17" s="7">
         <v>206</v>
@@ -3863,13 +3869,13 @@
         <v>146191</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3878,34 +3884,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>16</v>
+      </c>
+      <c r="D18" s="7">
+        <v>11513</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H18" s="7">
         <v>12</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>8119</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="J18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="H18" s="7">
-        <v>16</v>
-      </c>
-      <c r="I18" s="7">
-        <v>11513</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M18" s="7">
         <v>28</v>
@@ -3914,13 +3920,13 @@
         <v>19632</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3929,34 +3935,34 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
+        <v>3</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1803</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H19" s="7">
         <v>2</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>1331</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="H19" s="7">
-        <v>3</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1803</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>176</v>
+        <v>46</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -3965,13 +3971,13 @@
         <v>3134</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>177</v>
+        <v>51</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3980,34 +3986,34 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H20" s="7">
         <v>2</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>1287</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -4016,13 +4022,13 @@
         <v>1287</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>52</v>
+        <v>174</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4031,34 +4037,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>220</v>
+      </c>
+      <c r="D21" s="7">
+        <v>154839</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="7">
         <v>224</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>155930</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="7">
-        <v>220</v>
-      </c>
-      <c r="I21" s="7">
-        <v>154839</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>444</v>
@@ -4067,51 +4073,51 @@
         <v>310769</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>81</v>
+      </c>
+      <c r="D22" s="7">
+        <v>55984</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H22" s="7">
         <v>114</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>78071</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="H22" s="7">
-        <v>81</v>
-      </c>
-      <c r="I22" s="7">
-        <v>55984</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="M22" s="7">
         <v>195</v>
@@ -4120,13 +4126,13 @@
         <v>134055</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4135,34 +4141,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>137</v>
+      </c>
+      <c r="D23" s="7">
+        <v>96966</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H23" s="7">
         <v>117</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>78809</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="H23" s="7">
-        <v>137</v>
-      </c>
-      <c r="I23" s="7">
-        <v>96966</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="M23" s="7">
         <v>254</v>
@@ -4171,13 +4177,13 @@
         <v>175775</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4186,34 +4192,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>17</v>
+      </c>
+      <c r="D24" s="7">
+        <v>12705</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H24" s="7">
         <v>19</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>12576</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="H24" s="7">
-        <v>17</v>
-      </c>
-      <c r="I24" s="7">
-        <v>12705</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="M24" s="7">
         <v>36</v>
@@ -4222,13 +4228,13 @@
         <v>25281</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4237,34 +4243,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>1</v>
+      </c>
+      <c r="D25" s="7">
+        <v>818</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H25" s="7">
         <v>5</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>3481</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="H25" s="7">
-        <v>1</v>
-      </c>
-      <c r="I25" s="7">
-        <v>818</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>49</v>
+        <v>205</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -4273,13 +4279,13 @@
         <v>4299</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4288,34 +4294,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7">
+        <v>656</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="H26" s="7">
         <v>3</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>1947</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H26" s="7">
-        <v>1</v>
-      </c>
-      <c r="I26" s="7">
-        <v>656</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -4324,13 +4330,13 @@
         <v>2603</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>142</v>
+        <v>213</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>96</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,34 +4345,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>237</v>
+      </c>
+      <c r="D27" s="7">
+        <v>167130</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="7">
         <v>258</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>174883</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" s="7">
-        <v>237</v>
-      </c>
-      <c r="I27" s="7">
-        <v>167130</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>495</v>
@@ -4375,13 +4381,13 @@
         <v>342013</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4392,34 +4398,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>178</v>
+      </c>
+      <c r="D28" s="7">
+        <v>123151</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="H28" s="7">
         <v>220</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>151429</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F28" s="7" t="s">
+      <c r="J28" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="K28" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="H28" s="7">
-        <v>178</v>
-      </c>
-      <c r="I28" s="7">
-        <v>123151</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M28" s="7">
         <v>398</v>
@@ -4428,13 +4434,13 @@
         <v>274579</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4443,34 +4449,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>241</v>
+      </c>
+      <c r="D29" s="7">
+        <v>171322</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="H29" s="7">
         <v>219</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>150644</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F29" s="7" t="s">
+      <c r="J29" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="H29" s="7">
-        <v>241</v>
-      </c>
-      <c r="I29" s="7">
-        <v>171322</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M29" s="7">
         <v>460</v>
@@ -4479,13 +4485,13 @@
         <v>321966</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4494,34 +4500,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>33</v>
+      </c>
+      <c r="D30" s="7">
+        <v>24218</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="H30" s="7">
         <v>31</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>20695</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="F30" s="7" t="s">
+      <c r="J30" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="H30" s="7">
-        <v>33</v>
-      </c>
-      <c r="I30" s="7">
-        <v>24218</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M30" s="7">
         <v>64</v>
@@ -4530,13 +4536,13 @@
         <v>44913</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4545,34 +4551,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>4</v>
+      </c>
+      <c r="D31" s="7">
+        <v>2622</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H31" s="7">
         <v>7</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>4812</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G31" s="7" t="s">
+      <c r="J31" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="H31" s="7">
-        <v>4</v>
-      </c>
-      <c r="I31" s="7">
-        <v>2622</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="K31" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M31" s="7">
         <v>11</v>
@@ -4581,10 +4587,10 @@
         <v>7433</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>141</v>
+        <v>248</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>249</v>
@@ -4596,34 +4602,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>3234</v>
+        <v>656</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>250</v>
       </c>
       <c r="F32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="H32" s="7">
+        <v>5</v>
+      </c>
+      <c r="I32" s="7">
+        <v>3234</v>
+      </c>
+      <c r="J32" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="H32" s="7">
-        <v>1</v>
-      </c>
-      <c r="I32" s="7">
-        <v>656</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>142</v>
-      </c>
       <c r="K32" s="7" t="s">
-        <v>49</v>
+        <v>253</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>253</v>
+        <v>204</v>
       </c>
       <c r="M32" s="7">
         <v>6</v>
@@ -4632,13 +4638,13 @@
         <v>3890</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>142</v>
+        <v>250</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>254</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4647,34 +4653,34 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>457</v>
+      </c>
+      <c r="D33" s="7">
+        <v>321969</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
         <v>482</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>330813</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H33" s="7">
-        <v>457</v>
-      </c>
-      <c r="I33" s="7">
-        <v>321969</v>
-      </c>
       <c r="J33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M33" s="7">
         <v>939</v>
@@ -4683,18 +4689,18 @@
         <v>652782</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -4714,7 +4720,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAC3B72-EBA9-44CA-A9A4-07250AE000D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D0562AB-194E-49D1-A122-45157638231D}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5376,10 +5382,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="D16" s="7">
-        <v>126117</v>
+        <v>107822</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>256</v>
@@ -5391,10 +5397,10 @@
         <v>258</v>
       </c>
       <c r="H16" s="7">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="I16" s="7">
-        <v>107822</v>
+        <v>126117</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>259</v>
@@ -5427,10 +5433,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="D17" s="7">
-        <v>51704</v>
+        <v>67648</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>265</v>
@@ -5442,10 +5448,10 @@
         <v>267</v>
       </c>
       <c r="H17" s="7">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="I17" s="7">
-        <v>67648</v>
+        <v>51704</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>268</v>
@@ -5454,7 +5460,7 @@
         <v>269</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>222</v>
+        <v>270</v>
       </c>
       <c r="M17" s="7">
         <v>168</v>
@@ -5463,13 +5469,13 @@
         <v>119352</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5478,34 +5484,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>9</v>
+      </c>
+      <c r="D18" s="7">
+        <v>6338</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H18" s="7">
         <v>10</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>7347</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="H18" s="7">
-        <v>9</v>
-      </c>
-      <c r="I18" s="7">
-        <v>6338</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M18" s="7">
         <v>19</v>
@@ -5514,10 +5520,10 @@
         <v>13686</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>280</v>
+        <v>171</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>281</v>
@@ -5529,31 +5535,31 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" s="7">
-        <v>1472</v>
+        <v>2766</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>282</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>49</v>
+        <v>253</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>283</v>
       </c>
       <c r="H19" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>2766</v>
+        <v>1472</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>284</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>215</v>
+        <v>45</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>285</v>
@@ -5565,10 +5571,10 @@
         <v>4238</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>134</v>
+        <v>253</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>286</v>
@@ -5580,31 +5586,31 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>1409</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>49</v>
+        <v>212</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>287</v>
       </c>
       <c r="H20" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>1409</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>210</v>
+        <v>45</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>288</v>
@@ -5616,10 +5622,10 @@
         <v>1409</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>289</v>
@@ -5631,34 +5637,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>267</v>
+      </c>
+      <c r="D21" s="7">
+        <v>185983</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="7">
         <v>260</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>186641</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="7">
-        <v>267</v>
-      </c>
-      <c r="I21" s="7">
-        <v>185983</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>527</v>
@@ -5667,27 +5673,27 @@
         <v>372624</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="D22" s="7">
-        <v>111080</v>
+        <v>89901</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>290</v>
@@ -5699,10 +5705,10 @@
         <v>292</v>
       </c>
       <c r="H22" s="7">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="I22" s="7">
-        <v>89901</v>
+        <v>111080</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>293</v>
@@ -5735,10 +5741,10 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="D23" s="7">
-        <v>52331</v>
+        <v>67512</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>299</v>
@@ -5750,10 +5756,10 @@
         <v>301</v>
       </c>
       <c r="H23" s="7">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="I23" s="7">
-        <v>67512</v>
+        <v>52331</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>302</v>
@@ -5771,13 +5777,13 @@
         <v>119843</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5786,31 +5792,31 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>15</v>
+      </c>
+      <c r="D24" s="7">
+        <v>11049</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H24" s="7">
         <v>8</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>5354</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="H24" s="7">
-        <v>15</v>
-      </c>
-      <c r="I24" s="7">
-        <v>11049</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>312</v>
@@ -5837,31 +5843,31 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>2</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1640</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="H25" s="7">
         <v>3</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>2373</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="H25" s="7">
-        <v>2</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1640</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>317</v>
+        <v>88</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>318</v>
@@ -5876,7 +5882,7 @@
         <v>319</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>215</v>
+        <v>48</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>320</v>
@@ -5888,34 +5894,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="H26" s="7">
         <v>3</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>2300</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="J26" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="K26" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -5924,13 +5930,13 @@
         <v>2300</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5939,34 +5945,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>242</v>
+      </c>
+      <c r="D27" s="7">
+        <v>170102</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="7">
         <v>234</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>173437</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" s="7">
-        <v>242</v>
-      </c>
-      <c r="I27" s="7">
-        <v>170102</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>476</v>
@@ -5975,13 +5981,13 @@
         <v>343540</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5992,34 +5998,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>284</v>
+      </c>
+      <c r="D28" s="7">
+        <v>197723</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="D28" s="7">
+      <c r="G28" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="H28" s="7">
+        <v>325</v>
+      </c>
+      <c r="I28" s="7">
         <v>237197</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="G28" s="7" t="s">
+      <c r="J28" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="H28" s="7">
-        <v>284</v>
-      </c>
-      <c r="I28" s="7">
-        <v>197723</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="K28" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="M28" s="7">
         <v>609</v>
@@ -6028,13 +6034,13 @@
         <v>434920</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6043,31 +6049,31 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>193</v>
+      </c>
+      <c r="D29" s="7">
+        <v>135159</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="H29" s="7">
         <v>143</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>104035</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="G29" s="7" t="s">
+      <c r="J29" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="H29" s="7">
-        <v>193</v>
-      </c>
-      <c r="I29" s="7">
-        <v>135159</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>338</v>
@@ -6085,7 +6091,7 @@
         <v>340</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>341</v>
+        <v>304</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6094,13 +6100,13 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D30" s="7">
-        <v>12702</v>
+        <v>17388</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>47</v>
+        <v>341</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>342</v>
@@ -6109,19 +6115,19 @@
         <v>343</v>
       </c>
       <c r="H30" s="7">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I30" s="7">
-        <v>17388</v>
+        <v>12702</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>344</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>98</v>
+        <v>345</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M30" s="7">
         <v>42</v>
@@ -6130,13 +6136,13 @@
         <v>30089</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>288</v>
+        <v>348</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6145,34 +6151,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>6</v>
+      </c>
+      <c r="D31" s="7">
+        <v>4406</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="H31" s="7">
         <v>5</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>3845</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="H31" s="7">
-        <v>6</v>
-      </c>
-      <c r="I31" s="7">
-        <v>4406</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>143</v>
+        <v>353</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>135</v>
+        <v>287</v>
       </c>
       <c r="M31" s="7">
         <v>11</v>
@@ -6181,13 +6187,13 @@
         <v>8251</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>141</v>
+        <v>248</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6196,34 +6202,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>2</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1409</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="H32" s="7">
         <v>3</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>2300</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="H32" s="7">
-        <v>2</v>
-      </c>
-      <c r="I32" s="7">
-        <v>1409</v>
-      </c>
       <c r="J32" s="7" t="s">
-        <v>140</v>
+        <v>246</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>49</v>
+        <v>250</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="M32" s="7">
         <v>5</v>
@@ -6232,13 +6238,13 @@
         <v>3709</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>131</v>
+        <v>250</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>349</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6247,34 +6253,34 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>509</v>
+      </c>
+      <c r="D33" s="7">
+        <v>356085</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
         <v>494</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>360078</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H33" s="7">
-        <v>509</v>
-      </c>
-      <c r="I33" s="7">
-        <v>356085</v>
-      </c>
       <c r="J33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M33" s="7">
         <v>1003</v>
@@ -6283,18 +6289,18 @@
         <v>716163</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
